--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,18 +19,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -433,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="D2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -478,12 +472,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53isjidj988</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>98454333253, 9886681781</t>
         </is>
       </c>
     </row>
@@ -501,9 +490,9 @@
           <t>rjrghjr9886681781</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9886681781</t>
         </is>
       </c>
     </row>
@@ -523,12 +512,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>98454333253</t>
         </is>
       </c>
     </row>
